--- a/assets/data/Menu.xlsx
+++ b/assets/data/Menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Website\assets\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubato/Desktop/Website/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3481D2D2-732C-4C3C-A369-4C7338A80534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E197B12-4468-9946-81B9-7EDA192A491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
   <si>
     <t>鸡蛋羹</t>
   </si>
@@ -453,6 +453,33 @@
   </si>
   <si>
     <t>炸鸡柳</t>
+  </si>
+  <si>
+    <t>凉拌腐竹</t>
+  </si>
+  <si>
+    <t>腐竹</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>鸡胸肉</t>
+  </si>
+  <si>
+    <t>芝麻</t>
+  </si>
+  <si>
+    <t>油</t>
+  </si>
+  <si>
+    <t>麻酱拌面</t>
+  </si>
+  <si>
+    <t>炸油条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pizza roll </t>
   </si>
 </sst>
 </file>
@@ -825,25 +852,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
+    <col min="23" max="23" width="14.33203125" customWidth="1"/>
     <col min="26" max="26" width="11" customWidth="1"/>
-    <col min="27" max="27" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>86</v>
       </c>
@@ -857,18 +884,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="M2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -906,7 +933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -929,12 +956,44 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -969,7 +1028,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -986,7 +1045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="5" t="s">
         <v>55</v>
       </c>
@@ -1009,7 +1068,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>54</v>
       </c>
@@ -1029,17 +1088,22 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -1068,7 +1132,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -1085,7 +1149,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1181,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>60</v>
       </c>
@@ -1146,12 +1210,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1189,7 +1253,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +1300,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1268,7 +1332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1306,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -1338,32 +1402,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1401,12 +1465,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>36</v>
       </c>
@@ -1429,7 +1493,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1458,12 +1522,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -1477,7 +1541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1500,12 +1564,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -1513,7 +1577,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -1521,12 +1585,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>82</v>
       </c>
@@ -1543,7 +1607,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>120</v>
       </c>
@@ -1554,12 +1618,12 @@
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>91</v>
       </c>
@@ -1603,27 +1667,35 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>106</v>
       </c>
@@ -1652,12 +1724,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>

--- a/assets/data/Menu.xlsx
+++ b/assets/data/Menu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rubato/Desktop/Website/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E197B12-4468-9946-81B9-7EDA192A491F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F002AE-80CD-704B-B62A-943FA845CEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="18960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="141">
   <si>
     <t>鸡蛋羹</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t xml:space="preserve">pizza roll </t>
+  </si>
+  <si>
+    <t>玉米鸡蛋汤</t>
+  </si>
+  <si>
+    <t>虾饺</t>
   </si>
 </sst>
 </file>
@@ -852,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1098,6 +1104,11 @@
         <v>136</v>
       </c>
     </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>56</v>
@@ -1520,6 +1531,11 @@
       </c>
       <c r="O49" s="5" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
